--- a/data/trans_bre/P1804-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Clase-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,8</t>
+          <t>1,35; 11,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,33</t>
+          <t>-0,97; 6,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 190,63</t>
+          <t>12,02; 195,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 99,35</t>
+          <t>-10,44; 95,15</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,88</t>
+          <t>1,36; 9,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,27</t>
+          <t>-2,29; 6,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 308,05</t>
+          <t>17,02; 284,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 91,93</t>
+          <t>-21,56; 83,78</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 11,11</t>
+          <t>0,67; 12,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 12,91</t>
+          <t>-0,08; 12,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 221,69</t>
+          <t>4,14; 233,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 574,65</t>
+          <t>-6,19; 567,8</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,93</t>
+          <t>0,53; 5,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,87</t>
+          <t>-1,49; 4,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 99,23</t>
+          <t>6,3; 92,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 143,33</t>
+          <t>-28,66; 139,64</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,8</t>
+          <t>1,04; 7,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,34</t>
+          <t>-2,32; 4,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,64; 147,98</t>
+          <t>11,11; 160,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 103,84</t>
+          <t>-28,26; 107,72</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,91</t>
+          <t>-0,97; 5,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,03</t>
+          <t>0,18; 5,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 160,21</t>
+          <t>-12,25; 169,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 1787,06</t>
+          <t>-13,53; 1731,69</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,91</t>
+          <t>2,29; 5,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,58</t>
+          <t>0,15; 3,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,48; 86,26</t>
+          <t>33,56; 89,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 83,17</t>
+          <t>3,35; 74,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1804-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
